--- a/Bitrix24 - 2/Партнеры - 2.xlsx
+++ b/Bitrix24 - 2/Партнеры - 2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
   <si>
     <t>Service name</t>
   </si>
@@ -320,13 +320,311 @@
   </si>
   <si>
     <t>MailChimp mailer - integration with Bitrix24</t>
+  </si>
+  <si>
+    <t>Messaging service</t>
+  </si>
+  <si>
+    <t>Dreamsite</t>
+  </si>
+  <si>
+    <t>MyHub, LLC</t>
+  </si>
+  <si>
+    <t>https://myhub.gitbook.io/huong-dan-su-dung/cong-cu/bitrix24-crm-integration</t>
+  </si>
+  <si>
+    <t>InformUnity</t>
+  </si>
+  <si>
+    <t>CRM
+Employees
+Telephony
+Data storage</t>
+  </si>
+  <si>
+    <t>Message Service
+Data storage</t>
+  </si>
+  <si>
+    <t>Employees
+Telephony</t>
+  </si>
+  <si>
+    <t>SigParser</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Ecwid</t>
+  </si>
+  <si>
+    <t>Polus Digital Solutions</t>
+  </si>
+  <si>
+    <t>CRM
+Employees
+Workgroups
+Lists
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>Employees
+Sites</t>
+  </si>
+  <si>
+    <t>1gt</t>
+  </si>
+  <si>
+    <t>CRM
+Business Processes
+Application embedding
+Instant system messages (without access to service user channel)
+Open lines
+Employees
+Message Service
+Creating and managing Chat bots
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>avivi</t>
+  </si>
+  <si>
+    <t>Tasks
+Tasks (extended rights)
+Employees
+Workgroups
+Company structure</t>
+  </si>
+  <si>
+    <t>IT-DELTA</t>
+  </si>
+  <si>
+    <t>Employees
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>Drive
+Employees
+Workgroups
+Company structure
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>NiceDo</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Employees
+Company structure</t>
+  </si>
+  <si>
+    <t>Tasks
+Employees
+Company structure
+Workgroups
+Tasks (extended rights)
+Lists
+Application embedding</t>
+  </si>
+  <si>
+    <t>M.C.Art</t>
+  </si>
+  <si>
+    <t>Data storage
+Employees</t>
+  </si>
+  <si>
+    <t>IS4Business</t>
+  </si>
+  <si>
+    <t>CRM
+Employees
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>HTMLStudio</t>
+  </si>
+  <si>
+    <t>CRM
+Activity stream
+Open lines
+Employees
+Creating and managing Chat bots
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Open lines
+Employees
+Telephony
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>B24.io</t>
+  </si>
+  <si>
+    <t>CRM
+Chat and notifications
+Tasks
+Employees
+Workgroups
+Business Processes
+Creating and managing Chat bots</t>
+  </si>
+  <si>
+    <t>CSC Telecom</t>
+  </si>
+  <si>
+    <t>CRM
+Application embedding
+Tasks
+Open lines
+Employees
+Telephony
+Data storage</t>
+  </si>
+  <si>
+    <t>Open lines
+Employees
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>Tasks
+Employees
+Workgroups</t>
+  </si>
+  <si>
+    <t>Cozy Vision Technologies Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>CRM
+Message Service</t>
+  </si>
+  <si>
+    <t>UCOZ Ltd</t>
+  </si>
+  <si>
+    <t>CRM
+Employees</t>
+  </si>
+  <si>
+    <t>Cheapmedia, LLC</t>
+  </si>
+  <si>
+    <t>Roistat.com</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Employees</t>
+  </si>
+  <si>
+    <t>Br24</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Employees
+Company structure
+Tasks (extended rights)</t>
+  </si>
+  <si>
+    <t>Macte</t>
+  </si>
+  <si>
+    <t>CRM
+Application embedding
+Employees
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>Progressive Media</t>
+  </si>
+  <si>
+    <t>CRM
+Application embedding
+Contact Center
+Open lines
+Employees
+Creating and managing Chat bots
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>CRM
+Application embedding
+Open lines
+Employees
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>CRM
+Employees
+Lists</t>
+  </si>
+  <si>
+    <t>LeadsBridge Inc</t>
+  </si>
+  <si>
+    <t>mzadubin</t>
+  </si>
+  <si>
+    <t>Instant system messages (without access to service user channel)
+Employees
+Company structure
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>Open lines
+Employees
+Data storage
+Chat and notifications</t>
+  </si>
+  <si>
+    <t>Primepix</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>SM&amp;Partners</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Employees
+Telephony
+Application embedding</t>
+  </si>
+  <si>
+    <t>Pinall</t>
+  </si>
+  <si>
+    <t>CRM
+Chat and notifications
+Tasks
+Employees
+Company structure
+Activity stream
+Workgroups
+Business Processes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,6 +672,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -453,7 +757,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -773,7 +1077,7 @@
   <dimension ref="B2:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +1089,7 @@
     <col min="8" max="8" width="22.796875" style="6" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="6" customWidth="1"/>
     <col min="10" max="10" width="28.19921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.8984375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32.59765625" style="6" customWidth="1"/>
     <col min="12" max="16384" width="10.69921875" style="6"/>
   </cols>
   <sheetData>
@@ -821,397 +1125,517 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
+    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="7"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="156.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="187.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="12" t="s">
+        <v>111</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K9" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="4"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="4"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="7"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="4"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="4"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="7"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="K18" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="21" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K22" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="K24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="4"/>
       <c r="G25" s="2"/>
       <c r="H25" s="7"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="K27" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -1270,774 +1694,808 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="D43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
     <row r="45" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
     </row>
     <row r="46" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7" t="s">
+      <c r="D47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="D48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="49" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
     </row>
     <row r="50" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
     </row>
     <row r="57" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="2:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="D59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
     </row>
     <row r="61" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7" t="s">
+      <c r="D63" s="3"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="2:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="D64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
     </row>
     <row r="68" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
     </row>
     <row r="73" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
     </row>
     <row r="74" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+      <c r="D74" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="75" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
     </row>
     <row r="78" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
     </row>
     <row r="81" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7" t="s">
+      <c r="D82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
+      <c r="D83" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
     </row>
     <row r="86" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
     </row>
     <row r="89" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
-      <c r="C89" s="7" t="s">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
